--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CD/15/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CD/15/seed1/result_data_KNN.xlsx
@@ -502,10 +502,10 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.162</v>
+        <v>-12.974</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.602</v>
+        <v>-8.25</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.866</v>
+        <v>-8.581999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -536,7 +536,7 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.884</v>
+        <v>-12.445</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.118</v>
+        <v>-12.673</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.238</v>
+        <v>-8.196</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -706,10 +706,10 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.138</v>
+        <v>-12.072</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.918000000000001</v>
+        <v>-8.574000000000002</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.492</v>
+        <v>-13.041</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.634</v>
+        <v>-8.177000000000001</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
